--- a/results/data/FW1.2.xlsx
+++ b/results/data/FW1.2.xlsx
@@ -456,19 +456,19 @@
         <v>7519.301</v>
       </c>
       <c r="D2">
-        <v>33862.12</v>
+        <v>33862.11999999999</v>
       </c>
       <c r="E2">
-        <v>20284.982</v>
+        <v>20290.282</v>
       </c>
       <c r="F2">
-        <v>25312.834</v>
+        <v>26879.096</v>
       </c>
       <c r="G2">
         <v>10.26</v>
       </c>
       <c r="H2">
-        <v>74125.84000000005</v>
+        <v>75139.12000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,10 +482,10 @@
         <v>12034.04</v>
       </c>
       <c r="D3">
-        <v>28423.90000000001</v>
+        <v>28423.89999999999</v>
       </c>
       <c r="E3">
-        <v>4271.439</v>
+        <v>4275.499</v>
       </c>
       <c r="F3">
         <v>11261.379</v>
@@ -494,7 +494,7 @@
         <v>2296.205</v>
       </c>
       <c r="H3">
-        <v>78569.96199999994</v>
+        <v>79534.003</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,19 +508,19 @@
         <v>14063.967</v>
       </c>
       <c r="D4">
-        <v>30220.64</v>
+        <v>30220.64000000001</v>
       </c>
       <c r="E4">
-        <v>319.14</v>
+        <v>323.92</v>
       </c>
       <c r="F4">
-        <v>9795.17</v>
+        <v>9795.170000000002</v>
       </c>
       <c r="G4">
-        <v>487797.0779999999</v>
+        <v>12872.455212</v>
       </c>
       <c r="H4">
-        <v>88187.68999999997</v>
+        <v>88192.45000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,19 +534,19 @@
         <v>19470.544</v>
       </c>
       <c r="D5">
-        <v>34721.76000000002</v>
+        <v>34721.76</v>
       </c>
       <c r="E5">
-        <v>101.92</v>
+        <v>107.24</v>
       </c>
       <c r="F5">
-        <v>8282.425999999996</v>
+        <v>8282.425999999998</v>
       </c>
       <c r="G5">
-        <v>46195.22599999998</v>
+        <v>24111.014642</v>
       </c>
       <c r="H5">
-        <v>85232.95000000001</v>
+        <v>85300.05000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -557,22 +557,22 @@
         <v>98214.98</v>
       </c>
       <c r="C6">
-        <v>18177.94799999999</v>
+        <v>18177.948</v>
       </c>
       <c r="D6">
-        <v>28462.03</v>
+        <v>28462.03000000001</v>
       </c>
       <c r="E6">
-        <v>15905.2</v>
+        <v>15906.66</v>
       </c>
       <c r="F6">
-        <v>9743.48</v>
+        <v>9743.480000000001</v>
       </c>
       <c r="G6">
-        <v>49041.35100000001</v>
+        <v>49097.90600000001</v>
       </c>
       <c r="H6">
-        <v>77492.93000000002</v>
+        <v>77524.54999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,7 +586,7 @@
         <v>10354.269</v>
       </c>
       <c r="D7">
-        <v>36206.212</v>
+        <v>36206.21200000001</v>
       </c>
       <c r="E7">
         <v>31126.561</v>
@@ -595,10 +595,10 @@
         <v>13004.379</v>
       </c>
       <c r="G7">
-        <v>44235.74199999997</v>
+        <v>44235.74200000001</v>
       </c>
       <c r="H7">
-        <v>77733.98</v>
+        <v>77806.67999999999</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/FW1.2.xlsx
+++ b/results/data/FW1.2.xlsx
@@ -25,9 +25,6 @@
     <t>Composteren, aeroob</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>Overslag / opbulken</t>
   </si>
   <si>
@@ -35,6 +32,9 @@
   </si>
   <si>
     <t>Vergisten</t>
+  </si>
+  <si>
+    <t>overige</t>
   </si>
   <si>
     <t>MeldPeriodeJAAR</t>
@@ -459,16 +459,16 @@
         <v>33862.11999999999</v>
       </c>
       <c r="E2">
+        <v>26879.096</v>
+      </c>
+      <c r="F2">
+        <v>10.26</v>
+      </c>
+      <c r="G2">
+        <v>75139.12000000001</v>
+      </c>
+      <c r="H2">
         <v>20290.282</v>
-      </c>
-      <c r="F2">
-        <v>26879.096</v>
-      </c>
-      <c r="G2">
-        <v>10.26</v>
-      </c>
-      <c r="H2">
-        <v>75139.12000000001</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,16 +485,16 @@
         <v>28423.89999999999</v>
       </c>
       <c r="E3">
+        <v>11261.379</v>
+      </c>
+      <c r="F3">
+        <v>2296.205</v>
+      </c>
+      <c r="G3">
+        <v>79534.003</v>
+      </c>
+      <c r="H3">
         <v>4275.499</v>
-      </c>
-      <c r="F3">
-        <v>11261.379</v>
-      </c>
-      <c r="G3">
-        <v>2296.205</v>
-      </c>
-      <c r="H3">
-        <v>79534.003</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,16 +511,16 @@
         <v>30220.64000000001</v>
       </c>
       <c r="E4">
+        <v>9795.170000000002</v>
+      </c>
+      <c r="F4">
+        <v>12872.455212</v>
+      </c>
+      <c r="G4">
+        <v>88192.45000000001</v>
+      </c>
+      <c r="H4">
         <v>323.92</v>
-      </c>
-      <c r="F4">
-        <v>9795.170000000002</v>
-      </c>
-      <c r="G4">
-        <v>12872.455212</v>
-      </c>
-      <c r="H4">
-        <v>88192.45000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,16 +537,16 @@
         <v>34721.76</v>
       </c>
       <c r="E5">
+        <v>8282.425999999998</v>
+      </c>
+      <c r="F5">
+        <v>24111.014642</v>
+      </c>
+      <c r="G5">
+        <v>85300.05000000002</v>
+      </c>
+      <c r="H5">
         <v>107.24</v>
-      </c>
-      <c r="F5">
-        <v>8282.425999999998</v>
-      </c>
-      <c r="G5">
-        <v>24111.014642</v>
-      </c>
-      <c r="H5">
-        <v>85300.05000000002</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -563,16 +563,16 @@
         <v>28462.03000000001</v>
       </c>
       <c r="E6">
+        <v>9743.480000000001</v>
+      </c>
+      <c r="F6">
+        <v>49097.90600000001</v>
+      </c>
+      <c r="G6">
+        <v>77524.54999999999</v>
+      </c>
+      <c r="H6">
         <v>15906.66</v>
-      </c>
-      <c r="F6">
-        <v>9743.480000000001</v>
-      </c>
-      <c r="G6">
-        <v>49097.90600000001</v>
-      </c>
-      <c r="H6">
-        <v>77524.54999999999</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -589,16 +589,16 @@
         <v>36206.21200000001</v>
       </c>
       <c r="E7">
+        <v>13004.379</v>
+      </c>
+      <c r="F7">
+        <v>44235.74200000001</v>
+      </c>
+      <c r="G7">
+        <v>77806.67999999999</v>
+      </c>
+      <c r="H7">
         <v>31126.561</v>
-      </c>
-      <c r="F7">
-        <v>13004.379</v>
-      </c>
-      <c r="G7">
-        <v>44235.74200000001</v>
-      </c>
-      <c r="H7">
-        <v>77806.67999999999</v>
       </c>
     </row>
   </sheetData>
